--- a/data/trans_bre/P6-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P6-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,48</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,68</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,94</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,29</t>
+          <t>3,96</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>43,85%</t>
+          <t>16,18%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>90,74%</t>
+          <t>24,89%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>76,07%</t>
+          <t>11,12%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>89,61%</t>
+          <t>15,31%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,91; 13,05</t>
+          <t>-12,19; 14,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 20,34</t>
+          <t>-12,32; 14,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 27,11</t>
+          <t>-17,86; 21,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 31,16</t>
+          <t>-17,82; 23,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-62,28; 379,33</t>
+          <t>-79,47; 538,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-61,38; 496,51</t>
+          <t>-76,11; 508,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-27,52; 313,68</t>
+          <t>-56,17; 206,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-20,01; 291,94</t>
+          <t>-48,56; 188,79</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,16</t>
+          <t>4,27</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>7,42</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,56</t>
+          <t>13,5</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-18,89%</t>
+          <t>31,38%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-9,61%</t>
+          <t>100,96%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-9,84%</t>
+          <t>85,56%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-6,53%</t>
+          <t>95,7%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,7; 6,05</t>
+          <t>-7,58; 9,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-12,11; 8,77</t>
+          <t>-5,81; 14,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-15,02; 9,54</t>
+          <t>-7,81; 20,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,48; 12,51</t>
+          <t>-4,08; 29,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-79,39; 192,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-67,26; 140,29</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-57,1; 95,37</t>
+          <t>-53,62; 889,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-49,36; 78,54</t>
+          <t>-21,8; 461,37</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-9,24</t>
+          <t>-4,62</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-4,35</t>
+          <t>-5,84</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,07</t>
+          <t>-8,17</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-8,24%</t>
+          <t>-14,33%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-62,01%</t>
+          <t>-39,44%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-33,31%</t>
+          <t>-38,37%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-27,72%</t>
+          <t>-42,35%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 5,22</t>
+          <t>-10,6; 6,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-31,47; -0,4</t>
+          <t>-15,09; 3,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,28; 3,08</t>
+          <t>-17,16; 3,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,44; 4,48</t>
+          <t>-21,13; 2,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-65,79; 176,91</t>
+          <t>-70,13; 237,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-92,81; -2,42</t>
+          <t>-78,05; 86,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-70,37; 40,18</t>
+          <t>-75,2; 48,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-62,72; 49,43</t>
+          <t>-76,35; 25,3</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,96</t>
+          <t>6,69</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,81</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,95</t>
+          <t>4,89</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,48</t>
+          <t>8,64</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>144,73%</t>
+          <t>167,08%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>68,26%</t>
+          <t>34,09%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>43,02%</t>
+          <t>41,85%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>60,7%</t>
+          <t>75,69%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,5; 12,71</t>
+          <t>-0,31; 14,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 11,43</t>
+          <t>-5,85; 10,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 12,36</t>
+          <t>-4,73; 15,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 15,37</t>
+          <t>-1,5; 19,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 542,95</t>
+          <t>-25,89; 948,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-21,92; 277,25</t>
+          <t>-49,47; 329,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-20,69; 170,49</t>
+          <t>-30,67; 250,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 182,91</t>
+          <t>-13,67; 328,12</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,21</t>
+          <t>3,63</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,15</t>
+          <t>6,57</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>10,27</t>
+          <t>17,5</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>11,55</t>
+          <t>18,19</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>37,98%</t>
+          <t>44,5%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>31,34%</t>
+          <t>70,93%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>96,51%</t>
+          <t>166,05%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>87,71%</t>
+          <t>152,85%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 12,17</t>
+          <t>-6,31; 14,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 11,65</t>
+          <t>-3,79; 19,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,23; 19,92</t>
+          <t>5,12; 31,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,87; 21,68</t>
+          <t>3,29; 31,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-44,86; 223,42</t>
+          <t>-59,43; 484,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-42,48; 189,21</t>
+          <t>-36,28; 534,56</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 275,08</t>
+          <t>21,94; 574,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 248,53</t>
+          <t>9,51; 449,82</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,67</t>
+          <t>3,69</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>6,23</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>6,46</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>29,63%</t>
+          <t>136,61%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>33,79%</t>
+          <t>228,16%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>33,28%</t>
+          <t>261,72%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-11,88%</t>
+          <t>-1,8%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 9,79</t>
+          <t>-5,48; 13,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 10,83</t>
+          <t>-3,63; 16,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 10,58</t>
+          <t>-2,8; 16,72</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-10,62; 8,45</t>
+          <t>-14,18; 12,96</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-72,63; 461,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-63,39; 396,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-63,84; 385,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-72,1; 180,64</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,27</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,84</t>
+          <t>4,23</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,35</t>
+          <t>4,67</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>33,7%</t>
+          <t>42,67%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>28,71%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>22,61%</t>
+          <t>35,75%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>22,08%</t>
+          <t>30,14%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,49 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 5,01</t>
+          <t>-1,53; 6,39</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 3,96</t>
+          <t>-2,28; 6,41</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 6,74</t>
+          <t>-1,16; 9,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 7,62</t>
+          <t>-1,83; 11,24</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,78; 95,64</t>
+          <t>-19,71; 158,34</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-37,19; 48,16</t>
+          <t>-23,69; 112,01</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-10,87; 62,6</t>
+          <t>-8,17; 107,56</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-9,19; 57,59</t>
+          <t>-9,5; 95,18</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P6-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P6-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,193 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,54</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,5</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,37</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>3,96</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>16,18%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>24,89%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>11,12%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>15,31%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>1.539632770514532</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>2.066371794200955</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>3.66953811277422</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>6.293863836973737</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.1617639676679112</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.2044959357915365</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.1879130167979526</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.2692849605339329</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-12,19; 14,18</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-12,32; 14,96</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-17,86; 21,2</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-17,82; 23,95</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-79,47; 538,28</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-76,11; 508,73</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-56,17; 206,5</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-48,56; 188,79</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-12.18888653492183</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-12.85249702831507</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-15.7698098840001</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-14.37033236643977</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.7946567710200503</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.7812326187773786</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.5450465735404278</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.4370463211983543</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>14.17857173650842</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>14.47325013547218</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>20.93791121761408</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>26.05147770399149</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>5.382839879007873</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>5.376451370905272</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>2.56878395709741</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>2.386024123676959</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1,31</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>4,27</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>7,42</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>13,5</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>31,38%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>100,96%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>85,56%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>95,7%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-7,58; 9,41</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-5,81; 14,04</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-7,81; 20,76</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-4,08; 29,87</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-53,62; 889,7</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-21,8; 461,37</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>1.314457948790512</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>4.635217123310829</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>7.881193307499634</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>12.87466484380726</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.3138261219175085</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>1.277748388316217</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.9808993561130533</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>1.001418324872646</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-1,18</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-4,62</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-5,84</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-8,17</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-14,33%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-39,44%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-38,37%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-42,35%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-7.579549761502888</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-4.236677299938068</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-6.461191258100994</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-3.614925587538197</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.5096297741594076</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.2075999340757599</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-10,6; 6,33</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-15,09; 3,79</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-17,16; 3,68</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-21,13; 2,4</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-70,13; 237,17</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-78,05; 86,04</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-75,2; 48,42</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-76,35; 25,3</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>9.410728368437633</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>14.54866856828278</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>21.68368103852117</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>28.28481865146945</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>8.809972124997831</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>4.758020234351004</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +821,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>6,69</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,69</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>4,89</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>8,64</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>167,08%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>34,09%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>41,85%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>75,69%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-1.184710593698446</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-5.826224692434242</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-6.665672448411246</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-8.591448540238893</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.1432815107914728</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.4397192380478672</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.4149513558266382</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.4320549619480541</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-0,31; 14,41</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-5,85; 10,58</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-4,73; 15,31</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-1,5; 19,57</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-25,89; 948,39</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-49,47; 329,09</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-30,67; 250,98</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-13,67; 328,12</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-10.60439424623132</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-18.6386606028189</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-19.70121153789987</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-22.70370895626631</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.7012549181700061</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.8190426112619468</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.7673625099971855</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.7755111897594832</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>6.331691617552634</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>3.417624363775845</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>3.312070439201161</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>2.574134979837839</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>2.371715477061182</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.6175034414199614</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.4649708842614026</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.2526950552970379</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>3,63</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>6,57</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>17,5</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>18,19</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>44,5%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>70,93%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>166,05%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>152,85%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-6,31; 14,4</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-3,79; 19,3</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>5,12; 31,57</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>3,29; 31,64</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-59,43; 484,66</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-36,28; 534,56</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>21,94; 574,17</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>9,51; 449,82</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>6.686755064854226</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.1776794765312242</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>3.498563511539091</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>7.765344590450359</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>1.670778932351523</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.0175386579740899</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.2780356325528754</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.6527505983073487</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>3,69</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>6,23</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>6,46</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-0,17</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>136,61%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>228,16%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>261,72%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-1,8%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.311386812012493</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-11.737787700071</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-7.380325551660319</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-3.167528782038619</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.2589000926789363</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.6874829272111475</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.4299129924265152</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.2127396441444024</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-5,48; 13,23</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-3,63; 16,24</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-2,8; 16,72</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-14,18; 12,96</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>14.40548272892604</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>8.491671041719346</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>13.78852273887672</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>18.19252736604359</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>9.48393673407651</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.90036455608255</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.922964115151319</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>2.700857454328694</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +1021,281 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>2,59</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>2,23</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>4,23</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>4,67</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>42,67%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>28,71%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>35,75%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>30,14%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>3.627939529182239</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>5.847120266987095</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>16.93354798987546</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>18.19554226508776</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0.4450430140181881</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>0.6203441352741754</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>1.607974697169225</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>1.570652497199294</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-1,53; 6,39</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-2,28; 6,41</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-1,16; 9,95</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-1,83; 11,24</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-19,71; 158,34</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-23,69; 112,01</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-8,17; 107,56</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-9,5; 95,18</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-6.30582767201988</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-4.757743034879216</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>4.125154202961154</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>3.592723393192192</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-0.5942674681141855</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>-0.3898147777228039</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>0.1551320191669147</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>0.1052981293698691</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>14.39637340544808</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>18.36488729754674</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>30.57477005118923</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>31.40817793136552</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>4.846588219893893</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>4.785063555909852</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>5.711518715054528</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>4.693279359202339</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>3.693985904710146</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>7.506030839049943</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>6.510869740062705</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>0.7922221894594337</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>1.366130360636283</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>3.316208422084035</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>2.711206475049271</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>0.08656473466058248</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-5.476034523182218</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-1.504504891043326</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-2.701279929626968</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-12.53388383767419</v>
+      </c>
+      <c r="G20" s="6" t="inlineStr"/>
+      <c r="H20" s="6" t="inlineStr"/>
+      <c r="I20" s="6" t="inlineStr"/>
+      <c r="J20" s="6" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>13.23183934381233</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>19.13704161647059</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>17.26378336760727</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>15.77472452977628</v>
+      </c>
+      <c r="G21" s="6" t="inlineStr"/>
+      <c r="H21" s="6" t="inlineStr"/>
+      <c r="I21" s="6" t="inlineStr"/>
+      <c r="J21" s="6" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>2.586786837312355</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>1.547169335611907</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>3.865195984046037</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>4.862572972361534</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.4267178046615244</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>0.1852199557127679</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>0.3235362045223796</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>0.3232454407899769</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-1.530334756527024</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-3.542183821563663</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-1.637919387471957</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-1.474940762132966</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-0.1971097924102273</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.3335482803707677</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>-0.116511594801922</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>-0.08506803387398232</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>6.388495655541219</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>5.597858450584226</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>9.473506776276972</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>11.25026391268388</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>1.583413400961534</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>0.9027786540989948</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>1.015727356831575</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>0.9505624930741712</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1303,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
